--- a/tests/data/test_google_drive_data/users/steven/itype_fried_food.xlsx
+++ b/tests/data/test_google_drive_data/users/steven/itype_fried_food.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -19,23 +19,36 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Website</t>
+  </si>
+  <si>
     <t>fry bits</t>
   </si>
   <si>
+    <t>petes.com</t>
+  </si>
+  <si>
     <t>mozarella sticks</t>
+  </si>
+  <si>
+    <t>foodwars.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,11 +64,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -87,24 +103,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2.0</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>6.0</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>